--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L580"/>
+  <dimension ref="A1:L584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22596,6 +22596,174 @@
         </is>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>303.0333333333333</v>
+      </c>
+      <c r="C581" t="n">
+        <v>308.7055555555555</v>
+      </c>
+      <c r="D581" t="n">
+        <v>316.85</v>
+      </c>
+      <c r="E581" t="n">
+        <v>325.55</v>
+      </c>
+      <c r="F581" t="n">
+        <v>331.72</v>
+      </c>
+      <c r="G581" t="n">
+        <v>331.9528571428572</v>
+      </c>
+      <c r="H581" t="n">
+        <v>331.0328571428572</v>
+      </c>
+      <c r="I581" t="n">
+        <v>334.04</v>
+      </c>
+      <c r="J581" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="K581" t="n">
+        <v>328.6255555555555</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>318.03</v>
+      </c>
+      <c r="C582" t="n">
+        <v>322.4166666666667</v>
+      </c>
+      <c r="D582" t="n">
+        <v>331.95</v>
+      </c>
+      <c r="E582" t="n">
+        <v>338.32</v>
+      </c>
+      <c r="F582" t="n">
+        <v>340.85</v>
+      </c>
+      <c r="G582" t="n">
+        <v>340.6228571428572</v>
+      </c>
+      <c r="H582" t="n">
+        <v>344.9628571428572</v>
+      </c>
+      <c r="I582" t="n">
+        <v>342.68</v>
+      </c>
+      <c r="J582" t="n">
+        <v>340.74</v>
+      </c>
+      <c r="K582" t="n">
+        <v>331.7766666666667</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>327.52</v>
+      </c>
+      <c r="C583" t="n">
+        <v>319.8466666666667</v>
+      </c>
+      <c r="D583" t="n">
+        <v>334.74</v>
+      </c>
+      <c r="E583" t="n">
+        <v>343</v>
+      </c>
+      <c r="F583" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="G583" t="n">
+        <v>347.23</v>
+      </c>
+      <c r="H583" t="n">
+        <v>347.57</v>
+      </c>
+      <c r="I583" t="n">
+        <v>349.47</v>
+      </c>
+      <c r="J583" t="n">
+        <v>346.3</v>
+      </c>
+      <c r="K583" t="n">
+        <v>334.8966666666667</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>314.6866666666667</v>
+      </c>
+      <c r="C584" t="n">
+        <v>314.2511111111111</v>
+      </c>
+      <c r="D584" t="n">
+        <v>325.11</v>
+      </c>
+      <c r="E584" t="n">
+        <v>331.65</v>
+      </c>
+      <c r="F584" t="n">
+        <v>335.91</v>
+      </c>
+      <c r="G584" t="n">
+        <v>340.1514285714285</v>
+      </c>
+      <c r="H584" t="n">
+        <v>339.0814285714285</v>
+      </c>
+      <c r="I584" t="n">
+        <v>348.01</v>
+      </c>
+      <c r="J584" t="n">
+        <v>341.31</v>
+      </c>
+      <c r="K584" t="n">
+        <v>325.6911111111111</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22607,7 +22775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28555,6 +28723,46 @@
       </c>
       <c r="B594" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -28723,28 +28931,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01836019305993799</v>
+        <v>-0.02731854561240464</v>
       </c>
       <c r="J2" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K2" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001468560354996873</v>
+        <v>0.0003286454380188042</v>
       </c>
       <c r="M2" t="n">
-        <v>8.677342553178796</v>
+        <v>8.675241492721051</v>
       </c>
       <c r="N2" t="n">
-        <v>125.4407120474271</v>
+        <v>125.2602915722831</v>
       </c>
       <c r="O2" t="n">
-        <v>11.20003178778646</v>
+        <v>11.19197442689551</v>
       </c>
       <c r="P2" t="n">
-        <v>321.646522050882</v>
+        <v>321.7319336959263</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28800,28 +29008,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05915292594385584</v>
+        <v>0.0531138130800992</v>
       </c>
       <c r="J3" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K3" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002235480642475585</v>
+        <v>0.001828023851458638</v>
       </c>
       <c r="M3" t="n">
-        <v>6.817564420644736</v>
+        <v>6.801440884918812</v>
       </c>
       <c r="N3" t="n">
-        <v>84.82287978071243</v>
+        <v>84.45636480593818</v>
       </c>
       <c r="O3" t="n">
-        <v>9.209933755500765</v>
+        <v>9.190014407275877</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4905559988895</v>
+        <v>318.5483222800391</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28877,28 +29085,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04348478651830183</v>
+        <v>-0.04805761714048152</v>
       </c>
       <c r="J4" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001035653076256526</v>
+        <v>0.001281393715602208</v>
       </c>
       <c r="M4" t="n">
-        <v>7.738549011653555</v>
+        <v>7.728787803375119</v>
       </c>
       <c r="N4" t="n">
-        <v>99.09083198319757</v>
+        <v>98.7298487547518</v>
       </c>
       <c r="O4" t="n">
-        <v>9.954437803472256</v>
+        <v>9.936289486259536</v>
       </c>
       <c r="P4" t="n">
-        <v>331.089900223085</v>
+        <v>331.1333683386993</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28954,28 +29162,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06725244107672079</v>
+        <v>-0.07426333474444065</v>
       </c>
       <c r="J5" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K5" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002340112318171772</v>
+        <v>0.00288727620667073</v>
       </c>
       <c r="M5" t="n">
-        <v>7.878880078132402</v>
+        <v>7.867844438388746</v>
       </c>
       <c r="N5" t="n">
-        <v>103.6795822604663</v>
+        <v>103.3378588491588</v>
       </c>
       <c r="O5" t="n">
-        <v>10.18231713611722</v>
+        <v>10.16552304847905</v>
       </c>
       <c r="P5" t="n">
-        <v>340.7019590736087</v>
+        <v>340.7697992671182</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -29031,28 +29239,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04562707348505084</v>
+        <v>-0.04889800142446675</v>
       </c>
       <c r="J6" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K6" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001094900090464312</v>
+        <v>0.001276897511885533</v>
       </c>
       <c r="M6" t="n">
-        <v>8.011382115230731</v>
+        <v>7.97943432444037</v>
       </c>
       <c r="N6" t="n">
-        <v>101.1303815269919</v>
+        <v>100.4903870303681</v>
       </c>
       <c r="O6" t="n">
-        <v>10.0563602524468</v>
+        <v>10.02448936506833</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1108191108743</v>
+        <v>341.1426596353282</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -29108,28 +29316,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05543129258953297</v>
+        <v>-0.05631231836913858</v>
       </c>
       <c r="J7" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K7" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001722618455703873</v>
+        <v>0.001804727528853078</v>
       </c>
       <c r="M7" t="n">
-        <v>7.717628188302918</v>
+        <v>7.685915142686574</v>
       </c>
       <c r="N7" t="n">
-        <v>95.49885658657793</v>
+        <v>94.94219709852209</v>
       </c>
       <c r="O7" t="n">
-        <v>9.772351640550903</v>
+        <v>9.743828667342324</v>
       </c>
       <c r="P7" t="n">
-        <v>341.9470003041276</v>
+        <v>341.9554150059636</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29185,28 +29393,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01018977673389138</v>
+        <v>0.003287261848229263</v>
       </c>
       <c r="J8" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K8" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L8" t="n">
-        <v>8.300036880437567e-05</v>
+        <v>8.732094860630646e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>6.374952163738443</v>
+        <v>6.368864341554794</v>
       </c>
       <c r="N8" t="n">
-        <v>67.14885603718206</v>
+        <v>67.05855245018489</v>
       </c>
       <c r="O8" t="n">
-        <v>8.194440556693426</v>
+        <v>8.188928650939932</v>
       </c>
       <c r="P8" t="n">
-        <v>344.5052650826246</v>
+        <v>344.5722105280486</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29262,28 +29470,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04564700254559143</v>
+        <v>0.03669489204988</v>
       </c>
       <c r="J9" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K9" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00166841416401442</v>
+        <v>0.001089785547767841</v>
       </c>
       <c r="M9" t="n">
-        <v>6.403173808536929</v>
+        <v>6.391869482457117</v>
       </c>
       <c r="N9" t="n">
-        <v>67.63735700778209</v>
+        <v>67.60466117075319</v>
       </c>
       <c r="O9" t="n">
-        <v>8.224193395572728</v>
+        <v>8.222205371477484</v>
       </c>
       <c r="P9" t="n">
-        <v>347.6938241796318</v>
+        <v>347.7795656835827</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29339,28 +29547,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07979160355149584</v>
+        <v>0.07528805748226029</v>
       </c>
       <c r="J10" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K10" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00510428717194189</v>
+        <v>0.004612683693372865</v>
       </c>
       <c r="M10" t="n">
-        <v>6.524440206134</v>
+        <v>6.50426853933466</v>
       </c>
       <c r="N10" t="n">
-        <v>67.60783320007447</v>
+        <v>67.26384688045286</v>
       </c>
       <c r="O10" t="n">
-        <v>8.22239826328514</v>
+        <v>8.201453949175894</v>
       </c>
       <c r="P10" t="n">
-        <v>341.2400721718708</v>
+        <v>341.2831187222081</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29416,28 +29624,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03818233048622575</v>
+        <v>0.03151830861305615</v>
       </c>
       <c r="J11" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K11" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00104965945754032</v>
+        <v>0.0007266363983268187</v>
       </c>
       <c r="M11" t="n">
-        <v>6.674824196659455</v>
+        <v>6.656471594241258</v>
       </c>
       <c r="N11" t="n">
-        <v>75.4756197366536</v>
+        <v>75.06530376867882</v>
       </c>
       <c r="O11" t="n">
-        <v>8.68767055870868</v>
+        <v>8.664023532324853</v>
       </c>
       <c r="P11" t="n">
-        <v>333.2457606702546</v>
+        <v>333.3089186522125</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29474,7 +29682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L580"/>
+  <dimension ref="A1:L584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61002,6 +61210,254 @@
         </is>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-36.601818114222226,174.70820218831025</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-36.60246581226078,174.70860046951472</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-36.60311415352131,174.70902920506182</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-36.60375240005004,174.70951111034185</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-36.604359583291725,174.71002920112468</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>-36.604982648590855,174.7104822638776</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>-36.60561042034285,174.71092654560883</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>-36.60623007821291,174.71141963019528</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>-36.60681919914997,174.71196811373846</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>-36.60742056787423,174.71247090570938</t>
+        </is>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-36.601765602552554,174.70835664775012</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-36.602417801698394,174.7087416892504</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-36.6030580655519,174.70918298942996</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-36.60369787485714,174.70963681710353</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-36.604317532907636,174.71011692384556</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>-36.60494262871791,174.71056550240093</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>-36.60554582052564,174.71106006230656</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>-36.606186157806,174.7114993815874</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>-36.60678051968758,174.71202978852222</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>-36.60740303045026,174.71249861155127</t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-36.60173237268427,174.70845439069814</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-36.602426800773294,174.70871521914674</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-36.60304770225692,174.7092114038676</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-36.60367789221706,174.70968288656843</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-36.6043064791271,174.71013998347132</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>-36.604912130754265,174.71062893588478</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>-36.60553372998898,174.71108505130542</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>-36.606151641616854,174.7115620565176</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>-36.60674975316921,174.71207884595967</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>-36.60738566616825,174.7125260438392</t>
+        </is>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-36.60177730943871,174.7083222128237</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-36.60244639407001,174.7086575868542</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-36.60308347231165,174.7091133281949</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-36.6037263543592,174.7095711582302</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-36.60434028525903,174.7100694594281</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>-36.604944804787586,174.7105609763342</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>-36.60557309543275,174.71100368983448</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>-36.606159063362696,174.71154858002782</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>-36.60677736556698,174.7120348177937</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>-36.607436899440174,174.712445104877</t>
+        </is>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -28776,7 +28776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28867,35 +28867,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28954,27 +28959,28 @@
       <c r="P2" t="n">
         <v>321.7319336959263</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.70508102449966 -36.60287916059808, 174.71456917176945 -36.59965330419953)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7050810244997</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.60287916059808</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7145691717695</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.59965330419953</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7098250981346</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.6012662323988</v>
       </c>
     </row>
@@ -29031,27 +29037,28 @@
       <c r="P3" t="n">
         <v>318.5483222800391</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.70542086049136 -36.60354672647075, 174.7149090500694 -36.600320861020606)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7054208604914</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.60354672647075</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7149090500694</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.60032086102061</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7101649552804</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.60193379374568</v>
       </c>
     </row>
@@ -29108,27 +29115,28 @@
       <c r="P4" t="n">
         <v>331.1333683386993</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.70580222658228 -36.6042910276972, 174.71518394350093 -36.600869191780774)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7058022265823</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.6042910276972</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7151839435009</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.60086919178077</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7104930850416</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.60258010973899</v>
       </c>
     </row>
@@ -29185,27 +29193,28 @@
       <c r="P5" t="n">
         <v>340.7697992671182</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.70630636358473 -36.60514238613091, 174.7153736554813 -36.6012093062123)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7063063635847</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.60514238613091</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7153736554813</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.6012093062123</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.710840009533</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.6031758461716</v>
       </c>
     </row>
@@ -29262,27 +29271,28 @@
       <c r="P6" t="n">
         <v>341.1426596353282</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.70684190853217 -36.605887356235456, 174.7156915527065 -36.60164507960872)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7068419085322</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.60588735623546</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7156915527065</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.60164507960872</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7112667306193</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.60376621792209</v>
       </c>
     </row>
@@ -29339,27 +29349,28 @@
       <c r="P7" t="n">
         <v>341.9554150059636</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.7072952008347 -36.60651486829019, 174.71613795994745 -36.60226324855399)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7072952008347</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.60651486829019</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7161379599474</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.60226324855399</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7117165803911</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.60438905842209</v>
       </c>
     </row>
@@ -29416,27 +29427,28 @@
       <c r="P8" t="n">
         <v>344.5722105280486</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7077535848802 -36.60714552943492, 174.7165816240392 -36.602874082777355)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7077535848802</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.60714552943492</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7165816240392</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.60287408277735</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7121676044597</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.60500980610614</v>
       </c>
     </row>
@@ -29493,27 +29505,28 @@
       <c r="P9" t="n">
         <v>347.7795656835827</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.7083362086651 -36.60792809124111, 174.7168371638177 -36.60324632165825)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7083362086651</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.60792809124111</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7168371638177</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.60324632165825</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7125866862414</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.60558720644968</v>
       </c>
     </row>
@@ -29570,27 +29583,28 @@
       <c r="P10" t="n">
         <v>341.2831187222081</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.70902326902805 -36.60866598339965, 174.71714845744918 -36.60357009400172)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7090232690281</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.60866598339965</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7171484574492</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.60357009400172</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7130858632386</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.60611803870069</v>
       </c>
     </row>
@@ -29647,27 +29661,28 @@
       <c r="P11" t="n">
         <v>333.3089186522125</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.70958142760406 -36.60924949069242, 174.71767809278495 -36.60412423971357)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7095814276041</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.60924949069242</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.717678092785</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.60412423971357</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7136297601945</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.606686865203</v>
       </c>
     </row>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L584"/>
+  <dimension ref="A1:L589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22764,6 +22764,208 @@
         </is>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>328.1966666666667</v>
+      </c>
+      <c r="C585" t="n">
+        <v>323.4777777777778</v>
+      </c>
+      <c r="D585" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E585" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="F585" t="n">
+        <v>344.29</v>
+      </c>
+      <c r="G585" t="n">
+        <v>345.8357142857143</v>
+      </c>
+      <c r="H585" t="n">
+        <v>343.1857142857143</v>
+      </c>
+      <c r="I585" t="n">
+        <v>352.07</v>
+      </c>
+      <c r="J585" t="n">
+        <v>343.48</v>
+      </c>
+      <c r="K585" t="n">
+        <v>329.6877777777778</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>327.4666666666667</v>
+      </c>
+      <c r="C586" t="n">
+        <v>327.0811111111111</v>
+      </c>
+      <c r="D586" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="E586" t="n">
+        <v>336.94</v>
+      </c>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="n">
+        <v>346.6771428571428</v>
+      </c>
+      <c r="H586" t="n">
+        <v>350.3771428571428</v>
+      </c>
+      <c r="I586" t="n">
+        <v>356.31</v>
+      </c>
+      <c r="J586" t="n">
+        <v>347.55</v>
+      </c>
+      <c r="K586" t="n">
+        <v>330.0111111111111</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>324.8533333333333</v>
+      </c>
+      <c r="C587" t="n">
+        <v>321.9188888888889</v>
+      </c>
+      <c r="D587" t="n">
+        <v>334.01</v>
+      </c>
+      <c r="E587" t="n">
+        <v>345.29</v>
+      </c>
+      <c r="F587" t="n">
+        <v>342.46</v>
+      </c>
+      <c r="G587" t="n">
+        <v>346.6342857142857</v>
+      </c>
+      <c r="H587" t="n">
+        <v>345.1942857142857</v>
+      </c>
+      <c r="I587" t="n">
+        <v>349.43</v>
+      </c>
+      <c r="J587" t="n">
+        <v>348.42</v>
+      </c>
+      <c r="K587" t="n">
+        <v>334.6988888888889</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>320.11</v>
+      </c>
+      <c r="C588" t="n">
+        <v>316.6133333333333</v>
+      </c>
+      <c r="D588" t="n">
+        <v>326.15</v>
+      </c>
+      <c r="E588" t="n">
+        <v>331.98</v>
+      </c>
+      <c r="F588" t="n">
+        <v>334.48</v>
+      </c>
+      <c r="G588" t="n">
+        <v>333.7071428571429</v>
+      </c>
+      <c r="H588" t="n">
+        <v>341.5371428571428</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>318.6566666666667</v>
+      </c>
+      <c r="C589" t="n">
+        <v>314.3777777777778</v>
+      </c>
+      <c r="D589" t="n">
+        <v>324.58</v>
+      </c>
+      <c r="E589" t="n">
+        <v>333.63</v>
+      </c>
+      <c r="F589" t="n">
+        <v>332.97</v>
+      </c>
+      <c r="G589" t="n">
+        <v>336.7714285714285</v>
+      </c>
+      <c r="H589" t="n">
+        <v>339.8614285714286</v>
+      </c>
+      <c r="I589" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="J589" t="n">
+        <v>335.92</v>
+      </c>
+      <c r="K589" t="n">
+        <v>330.8977777777778</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22775,7 +22977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B598"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28763,6 +28965,56 @@
       </c>
       <c r="B598" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -28936,28 +29188,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02731854561240464</v>
+        <v>-0.02153480555237283</v>
       </c>
       <c r="J2" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K2" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003286454380188042</v>
+        <v>0.0002085019910937902</v>
       </c>
       <c r="M2" t="n">
-        <v>8.675241492721051</v>
+        <v>8.626927549022497</v>
       </c>
       <c r="N2" t="n">
-        <v>125.2602915722831</v>
+        <v>124.1575951202876</v>
       </c>
       <c r="O2" t="n">
-        <v>11.19197442689551</v>
+        <v>11.14260270853662</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7319336959263</v>
+        <v>321.67636706462</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29014,28 +29266,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0531138130800992</v>
+        <v>0.05466681348058946</v>
       </c>
       <c r="J3" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K3" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001828023851458638</v>
+        <v>0.001974188347325434</v>
       </c>
       <c r="M3" t="n">
-        <v>6.801440884918812</v>
+        <v>6.775485641072251</v>
       </c>
       <c r="N3" t="n">
-        <v>84.45636480593818</v>
+        <v>83.80649241192565</v>
       </c>
       <c r="O3" t="n">
-        <v>9.190014407275877</v>
+        <v>9.154588598726086</v>
       </c>
       <c r="P3" t="n">
-        <v>318.5483222800391</v>
+        <v>318.5335085415788</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29092,28 +29344,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04805761714048152</v>
+        <v>-0.0450675291274442</v>
       </c>
       <c r="J4" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K4" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001281393715602208</v>
+        <v>0.001148767644661319</v>
       </c>
       <c r="M4" t="n">
-        <v>7.728787803375119</v>
+        <v>7.70016630326628</v>
       </c>
       <c r="N4" t="n">
-        <v>98.7298487547518</v>
+        <v>98.01764159411236</v>
       </c>
       <c r="O4" t="n">
-        <v>9.936289486259536</v>
+        <v>9.900385931574201</v>
       </c>
       <c r="P4" t="n">
-        <v>331.1333683386993</v>
+        <v>331.1048281323374</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29170,28 +29422,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07426333474444065</v>
+        <v>-0.07639727699276276</v>
       </c>
       <c r="J5" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K5" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00288727620667073</v>
+        <v>0.003113596492495319</v>
       </c>
       <c r="M5" t="n">
-        <v>7.867844438388746</v>
+        <v>7.834474207624197</v>
       </c>
       <c r="N5" t="n">
-        <v>103.3378588491588</v>
+        <v>102.5369097097039</v>
       </c>
       <c r="O5" t="n">
-        <v>10.16552304847905</v>
+        <v>10.12605104222292</v>
       </c>
       <c r="P5" t="n">
-        <v>340.7697992671182</v>
+        <v>340.7907894656531</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29248,28 +29500,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04889800142446675</v>
+        <v>-0.05109480088797077</v>
       </c>
       <c r="J6" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K6" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001276897511885533</v>
+        <v>0.001415528587894177</v>
       </c>
       <c r="M6" t="n">
-        <v>7.97943432444037</v>
+        <v>7.953731983050098</v>
       </c>
       <c r="N6" t="n">
-        <v>100.4903870303681</v>
+        <v>99.87623047261518</v>
       </c>
       <c r="O6" t="n">
-        <v>10.02448936506833</v>
+        <v>9.993809607582845</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1426596353282</v>
+        <v>341.1644462546649</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29326,28 +29578,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05631231836913858</v>
+        <v>-0.05349205600276183</v>
       </c>
       <c r="J7" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K7" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001804727528853078</v>
+        <v>0.001658962567952171</v>
       </c>
       <c r="M7" t="n">
-        <v>7.685915142686574</v>
+        <v>7.663514603608975</v>
       </c>
       <c r="N7" t="n">
-        <v>94.94219709852209</v>
+        <v>94.29143720632072</v>
       </c>
       <c r="O7" t="n">
-        <v>9.743828667342324</v>
+        <v>9.710377809659144</v>
       </c>
       <c r="P7" t="n">
-        <v>341.9554150059636</v>
+        <v>341.9280190791013</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29404,28 +29656,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003287261848229263</v>
+        <v>0.001972435423932029</v>
       </c>
       <c r="J8" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K8" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L8" t="n">
-        <v>8.732094860630646e-06</v>
+        <v>3.20820005483835e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>6.368864341554794</v>
+        <v>6.33416623430999</v>
       </c>
       <c r="N8" t="n">
-        <v>67.05855245018489</v>
+        <v>66.48461459134525</v>
       </c>
       <c r="O8" t="n">
-        <v>8.188928650939932</v>
+        <v>8.153809820651034</v>
       </c>
       <c r="P8" t="n">
-        <v>344.5722105280486</v>
+        <v>344.5851867792333</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29482,28 +29734,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03669489204988</v>
+        <v>0.03938182584411821</v>
       </c>
       <c r="J9" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K9" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001089785547767841</v>
+        <v>0.001274209879748023</v>
       </c>
       <c r="M9" t="n">
-        <v>6.391869482457117</v>
+        <v>6.37402452796297</v>
       </c>
       <c r="N9" t="n">
-        <v>67.60466117075319</v>
+        <v>67.22789591773152</v>
       </c>
       <c r="O9" t="n">
-        <v>8.222205371477484</v>
+        <v>8.199261912985309</v>
       </c>
       <c r="P9" t="n">
-        <v>347.7795656835827</v>
+        <v>347.7537054429862</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29560,28 +29812,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07528805748226029</v>
+        <v>0.07630354381674262</v>
       </c>
       <c r="J10" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K10" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004612683693372865</v>
+        <v>0.004806972405754451</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50426853933466</v>
+        <v>6.485581783504069</v>
       </c>
       <c r="N10" t="n">
-        <v>67.26384688045286</v>
+        <v>66.90486177707503</v>
       </c>
       <c r="O10" t="n">
-        <v>8.201453949175894</v>
+        <v>8.179539215449427</v>
       </c>
       <c r="P10" t="n">
-        <v>341.2831187222081</v>
+        <v>341.273419500157</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29638,28 +29890,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03151830861305615</v>
+        <v>0.02689490338530568</v>
       </c>
       <c r="J11" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K11" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007266363983268187</v>
+        <v>0.000538340306290519</v>
       </c>
       <c r="M11" t="n">
-        <v>6.656471594241258</v>
+        <v>6.62742124065493</v>
       </c>
       <c r="N11" t="n">
-        <v>75.06530376867882</v>
+        <v>74.53062260745038</v>
       </c>
       <c r="O11" t="n">
-        <v>8.664023532324853</v>
+        <v>8.63311198858502</v>
       </c>
       <c r="P11" t="n">
-        <v>333.3089186522125</v>
+        <v>333.3530463216466</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29697,7 +29949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L584"/>
+  <dimension ref="A1:L589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61473,6 +61725,300 @@
         </is>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>-36.601730003287784,174.70846136007256</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>-36.60241408612538,174.70875261832285</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>-36.60305007950081,174.70920488586108</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>-36.603685577849895,174.70966516754635</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>-36.60430168915419,174.71014997597374</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>-36.604918566651584,174.71061554970953</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>-36.60555406196253,174.71104302870495</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>-36.60613842480555,174.71158605573953</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>-36.60676535777267,174.71205396431463</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>-36.607414656105774,174.7124802451977</t>
+        </is>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-36.6017325594347,174.70845384138778</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-36.60240146873242,174.70878973138505</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>-36.60303466455388,174.70924715105224</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>-36.60370376717079,174.7096232325131</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>-36.604914682693234,174.71062362804713</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>-36.60552071195344,174.71111195725967</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>-36.60611687122637,174.7116251929144</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>-36.60674283623347,174.71208987505437</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>-36.60741285660288,174.71248308807512</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-36.601741710203456,174.7084269251788</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-36.60241954471032,174.7087365623134</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>-36.603050413800695,174.7092039692664</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-36.60366811438048,174.70970542909689</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>-36.60431011766366,174.71013239301192</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>-36.60491488051795,174.71062321658684</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>-36.605544747283695,174.7110622805084</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>-36.60615184495238,174.71156168729874</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>-36.60673802204561,174.71209755130315</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>-36.607386766895694,174.71252430489824</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-36.601758319300444,174.70837807086943</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-36.602438122558475,174.7086819169321</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-36.603079609298106,174.70912391996467</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-36.60372494532919,174.70957440672137</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-36.60434687146258,174.71005571972302</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-36.604974550983925,174.71049910634744</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>-36.60556170715187,174.7110272274346</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-36.60176340823982,174.7083631021519</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-36.602445950536584,174.7086588914775</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-36.60308544096244,174.70910793046565</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-36.603717900177834,174.70959064917528</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-36.60435382612344,174.71004121136053</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-36.60496040654285,174.71052852579962</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-36.60556947821314,174.71101116600144</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-36.606181786096016,174.71150731979967</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-36.60680719136592,174.71198726028024</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>-36.60740792188331,174.71249088400637</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L589"/>
+  <dimension ref="A1:L593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22966,6 +22966,174 @@
         </is>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>339.22</v>
+      </c>
+      <c r="C590" t="n">
+        <v>337.1133333333333</v>
+      </c>
+      <c r="D590" t="n">
+        <v>342.46</v>
+      </c>
+      <c r="E590" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="F590" t="n">
+        <v>352.47</v>
+      </c>
+      <c r="G590" t="n">
+        <v>350.4857142857143</v>
+      </c>
+      <c r="H590" t="n">
+        <v>347.9357142857143</v>
+      </c>
+      <c r="I590" t="n">
+        <v>355.31</v>
+      </c>
+      <c r="J590" t="n">
+        <v>339.44</v>
+      </c>
+      <c r="K590" t="n">
+        <v>331.0033333333333</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>326.05</v>
+      </c>
+      <c r="C591" t="n">
+        <v>331.18</v>
+      </c>
+      <c r="D591" t="n">
+        <v>339.36</v>
+      </c>
+      <c r="E591" t="n">
+        <v>347.09</v>
+      </c>
+      <c r="F591" t="n">
+        <v>348.06</v>
+      </c>
+      <c r="G591" t="n">
+        <v>346.0885714285715</v>
+      </c>
+      <c r="H591" t="n">
+        <v>343.1885714285714</v>
+      </c>
+      <c r="I591" t="n">
+        <v>351.14</v>
+      </c>
+      <c r="J591" t="n">
+        <v>334.93</v>
+      </c>
+      <c r="K591" t="n">
+        <v>330.58</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>330.1433333333333</v>
+      </c>
+      <c r="C592" t="n">
+        <v>332.7222222222222</v>
+      </c>
+      <c r="D592" t="n">
+        <v>342.92</v>
+      </c>
+      <c r="E592" t="n">
+        <v>355.26</v>
+      </c>
+      <c r="F592" t="n">
+        <v>355.81</v>
+      </c>
+      <c r="G592" t="n">
+        <v>354.0071428571428</v>
+      </c>
+      <c r="H592" t="n">
+        <v>352.3071428571428</v>
+      </c>
+      <c r="I592" t="n">
+        <v>349.97</v>
+      </c>
+      <c r="J592" t="n">
+        <v>338.27</v>
+      </c>
+      <c r="K592" t="n">
+        <v>329.1322222222223</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>324.8133333333333</v>
+      </c>
+      <c r="C593" t="n">
+        <v>315.7222222222222</v>
+      </c>
+      <c r="D593" t="n">
+        <v>326.09</v>
+      </c>
+      <c r="E593" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="F593" t="n">
+        <v>335.77</v>
+      </c>
+      <c r="G593" t="n">
+        <v>337.5714285714286</v>
+      </c>
+      <c r="H593" t="n">
+        <v>354.6714285714286</v>
+      </c>
+      <c r="I593" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="J593" t="n">
+        <v>350.44</v>
+      </c>
+      <c r="K593" t="n">
+        <v>337.2722222222222</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22977,7 +23145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B603"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29015,6 +29183,46 @@
       </c>
       <c r="B603" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29188,28 +29396,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02153480555237283</v>
+        <v>-0.006999996761031147</v>
       </c>
       <c r="J2" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K2" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002085019910937902</v>
+        <v>2.226311111896973e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.626927549022497</v>
+        <v>8.628738359657211</v>
       </c>
       <c r="N2" t="n">
-        <v>124.1575951202876</v>
+        <v>124.0338495858045</v>
       </c>
       <c r="O2" t="n">
-        <v>11.14260270853662</v>
+        <v>11.13704851321949</v>
       </c>
       <c r="P2" t="n">
-        <v>321.67636706462</v>
+        <v>321.535291631756</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29266,28 +29474,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05466681348058946</v>
+        <v>0.0693751729834773</v>
       </c>
       <c r="J3" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K3" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001974188347325434</v>
+        <v>0.00318485168944993</v>
       </c>
       <c r="M3" t="n">
-        <v>6.775485641072251</v>
+        <v>6.813310639170336</v>
       </c>
       <c r="N3" t="n">
-        <v>83.80649241192565</v>
+        <v>84.33974782538607</v>
       </c>
       <c r="O3" t="n">
-        <v>9.154588598726086</v>
+        <v>9.18366744962959</v>
       </c>
       <c r="P3" t="n">
-        <v>318.5335085415788</v>
+        <v>318.3906005306175</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29344,28 +29552,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0450675291274442</v>
+        <v>-0.03280910157170266</v>
       </c>
       <c r="J4" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K4" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001148767644661319</v>
+        <v>0.0006145033388377241</v>
       </c>
       <c r="M4" t="n">
-        <v>7.70016630326628</v>
+        <v>7.707652018035954</v>
       </c>
       <c r="N4" t="n">
-        <v>98.01764159411236</v>
+        <v>98.07905766525579</v>
       </c>
       <c r="O4" t="n">
-        <v>9.900385931574201</v>
+        <v>9.90348714672038</v>
       </c>
       <c r="P4" t="n">
-        <v>331.1048281323374</v>
+        <v>330.9862648790499</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29422,28 +29630,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07639727699276276</v>
+        <v>-0.06305533130732097</v>
       </c>
       <c r="J5" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K5" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003113596492495319</v>
+        <v>0.002141723805915263</v>
       </c>
       <c r="M5" t="n">
-        <v>7.834474207624197</v>
+        <v>7.837163994943083</v>
       </c>
       <c r="N5" t="n">
-        <v>102.5369097097039</v>
+        <v>102.5568028977869</v>
       </c>
       <c r="O5" t="n">
-        <v>10.12605104222292</v>
+        <v>10.12703327227608</v>
       </c>
       <c r="P5" t="n">
-        <v>340.7907894656531</v>
+        <v>340.6594801860839</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29500,28 +29708,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05109480088797077</v>
+        <v>-0.03809190450978303</v>
       </c>
       <c r="J6" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K6" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001415528587894177</v>
+        <v>0.0007929747088010197</v>
       </c>
       <c r="M6" t="n">
-        <v>7.953731983050098</v>
+        <v>7.9704256782202</v>
       </c>
       <c r="N6" t="n">
-        <v>99.87623047261518</v>
+        <v>100.0630801346166</v>
       </c>
       <c r="O6" t="n">
-        <v>9.993809607582845</v>
+        <v>10.00315350949972</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1644462546649</v>
+        <v>341.0357144746329</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29578,28 +29786,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05349205600276183</v>
+        <v>-0.04309241336665456</v>
       </c>
       <c r="J7" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K7" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001658962567952171</v>
+        <v>0.001088588290110271</v>
       </c>
       <c r="M7" t="n">
-        <v>7.663514603608975</v>
+        <v>7.66377987050515</v>
       </c>
       <c r="N7" t="n">
-        <v>94.29143720632072</v>
+        <v>94.16232832800537</v>
       </c>
       <c r="O7" t="n">
-        <v>9.710377809659144</v>
+        <v>9.703727548112909</v>
       </c>
       <c r="P7" t="n">
-        <v>341.9280190791013</v>
+        <v>341.8255280725202</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29656,28 +29864,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001972435423932029</v>
+        <v>0.01000527887210067</v>
       </c>
       <c r="J8" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K8" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>3.20820005483835e-06</v>
+        <v>8.35648329480243e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.33416623430999</v>
+        <v>6.327081984470422</v>
       </c>
       <c r="N8" t="n">
-        <v>66.48461459134525</v>
+        <v>66.28059404503875</v>
       </c>
       <c r="O8" t="n">
-        <v>8.153809820651034</v>
+        <v>8.141289458374438</v>
       </c>
       <c r="P8" t="n">
-        <v>344.5851867792333</v>
+        <v>344.5058124034474</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29734,28 +29942,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03938182584411821</v>
+        <v>0.0464378310406189</v>
       </c>
       <c r="J9" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K9" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001274209879748023</v>
+        <v>0.001797747090174218</v>
       </c>
       <c r="M9" t="n">
-        <v>6.37402452796297</v>
+        <v>6.358014051190271</v>
       </c>
       <c r="N9" t="n">
-        <v>67.22789591773152</v>
+        <v>66.85743729543059</v>
       </c>
       <c r="O9" t="n">
-        <v>8.199261912985309</v>
+        <v>8.176639731297362</v>
       </c>
       <c r="P9" t="n">
-        <v>347.7537054429862</v>
+        <v>347.6848767498595</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29812,28 +30020,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07630354381674262</v>
+        <v>0.07234101012014188</v>
       </c>
       <c r="J10" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K10" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004806972405754451</v>
+        <v>0.00437778588797888</v>
       </c>
       <c r="M10" t="n">
-        <v>6.485581783504069</v>
+        <v>6.481382601171941</v>
       </c>
       <c r="N10" t="n">
-        <v>66.90486177707503</v>
+        <v>66.67768408057341</v>
       </c>
       <c r="O10" t="n">
-        <v>8.179539215449427</v>
+        <v>8.165640457464033</v>
       </c>
       <c r="P10" t="n">
-        <v>341.273419500157</v>
+        <v>341.3119131209493</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29890,28 +30098,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02689490338530568</v>
+        <v>0.02354703777725866</v>
       </c>
       <c r="J11" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K11" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000538340306290519</v>
+        <v>0.0004196915663523537</v>
       </c>
       <c r="M11" t="n">
-        <v>6.62742124065493</v>
+        <v>6.603173236395266</v>
       </c>
       <c r="N11" t="n">
-        <v>74.53062260745038</v>
+        <v>74.0237950205487</v>
       </c>
       <c r="O11" t="n">
-        <v>8.63311198858502</v>
+        <v>8.603708213354793</v>
       </c>
       <c r="P11" t="n">
-        <v>333.3530463216466</v>
+        <v>333.385224928194</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29949,7 +30157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L589"/>
+  <dimension ref="A1:L593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62019,6 +62227,254 @@
         </is>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-36.601691404245855,174.70857489558338</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-36.60236633995241,174.70889305966918</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-36.60301902672535,174.70929002728872</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-36.60365547577335,174.70973456702896</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-36.60426401414672,174.71022857080467</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-36.60489710266463,174.7106601931439</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-36.60553203400096,174.71108855661092</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-36.606121954618786,174.7116159624506</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>-36.606787713295205,174.7120183182524</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>-36.60740733441664,174.71249181209333</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-36.60173751999248,174.70843925033145</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-36.6023871160938,174.70883194847949</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-36.60303054151741,174.70925845571492</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-36.60366042874182,174.70972314811078</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-36.604284325495605,174.71018619878447</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-36.6049173994859,174.71061797732548</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-36.60555404871262,174.7110430560902</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-36.606143152357824,174.71157747140342</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>-36.6068126695719,174.71197852522278</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>-36.60740969046707,174.71248808997598</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-36.60172318689374,174.70848140989608</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-36.60238171585624,174.70884783281446</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-36.60301731807809,174.70929471210206</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-36.6036255444499,174.70980357270102</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-36.60424863093858,174.7102606620702</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-36.60488084805238,174.71069400144225</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>-36.60551176163654,174.7111304559537</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>-36.60614909992274,174.71156667175322</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>-36.60679418754115,174.71200799500772</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>-36.60741774803496,174.71247536052826</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-36.60174185026619,174.70842651319597</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-36.60244124285643,174.7086727387942</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-36.6030798321643,174.70912330890107</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-36.60369603884607,174.70964104998276</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-36.604340930062236,174.71006811428228</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-36.60495671382048,174.7105362064007</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>-36.60550079732892,174.71115311719024</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>-36.606120022929744,174.711619470027</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>-36.60672684427426,174.71211537431378</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>-36.60737244506913,174.71254693066552</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L593"/>
+  <dimension ref="A1:L595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23134,6 +23134,90 @@
         </is>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>324.6633333333333</v>
+      </c>
+      <c r="C594" t="n">
+        <v>319.1688888888889</v>
+      </c>
+      <c r="D594" t="n">
+        <v>335.97</v>
+      </c>
+      <c r="E594" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="F594" t="n">
+        <v>342.93</v>
+      </c>
+      <c r="G594" t="n">
+        <v>344.6985714285714</v>
+      </c>
+      <c r="H594" t="n">
+        <v>354.7585714285714</v>
+      </c>
+      <c r="I594" t="n">
+        <v>361.73</v>
+      </c>
+      <c r="J594" t="n">
+        <v>358.93</v>
+      </c>
+      <c r="K594" t="n">
+        <v>344.7688888888889</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>319.8166666666667</v>
+      </c>
+      <c r="C595" t="n">
+        <v>323.8411111111111</v>
+      </c>
+      <c r="D595" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="E595" t="n">
+        <v>349.05</v>
+      </c>
+      <c r="F595" t="n">
+        <v>348.6</v>
+      </c>
+      <c r="G595" t="n">
+        <v>345.9442857142857</v>
+      </c>
+      <c r="H595" t="n">
+        <v>346.4842857142857</v>
+      </c>
+      <c r="I595" t="n">
+        <v>345.4</v>
+      </c>
+      <c r="J595" t="n">
+        <v>338.79</v>
+      </c>
+      <c r="K595" t="n">
+        <v>330.4711111111111</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23145,7 +23229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29223,6 +29307,26 @@
       </c>
       <c r="B607" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -29396,28 +29500,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006999996761031147</v>
+        <v>-0.006287289040894804</v>
       </c>
       <c r="J2" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L2" t="n">
-        <v>2.226311111896973e-05</v>
+        <v>1.811489476366557e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.628738359657211</v>
+        <v>8.602413921175851</v>
       </c>
       <c r="N2" t="n">
-        <v>124.0338495858045</v>
+        <v>123.5364412529044</v>
       </c>
       <c r="O2" t="n">
-        <v>11.13704851321949</v>
+        <v>11.11469483399812</v>
       </c>
       <c r="P2" t="n">
-        <v>321.535291631756</v>
+        <v>321.5283634335311</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29474,28 +29578,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0693751729834773</v>
+        <v>0.07042573094034807</v>
       </c>
       <c r="J3" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K3" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00318485168944993</v>
+        <v>0.00330891610433337</v>
       </c>
       <c r="M3" t="n">
-        <v>6.813310639170336</v>
+        <v>6.795013782946217</v>
       </c>
       <c r="N3" t="n">
-        <v>84.33974782538607</v>
+        <v>84.02291576073901</v>
       </c>
       <c r="O3" t="n">
-        <v>9.18366744962959</v>
+        <v>9.166401461900904</v>
       </c>
       <c r="P3" t="n">
-        <v>318.3906005306175</v>
+        <v>318.380347966894</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29552,28 +29656,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03280910157170266</v>
+        <v>-0.02806653883649602</v>
       </c>
       <c r="J4" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K4" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006145033388377241</v>
+        <v>0.0004529828068818853</v>
       </c>
       <c r="M4" t="n">
-        <v>7.707652018035954</v>
+        <v>7.698154948539957</v>
       </c>
       <c r="N4" t="n">
-        <v>98.07905766525579</v>
+        <v>97.82820729254776</v>
       </c>
       <c r="O4" t="n">
-        <v>9.90348714672038</v>
+        <v>9.89081428864923</v>
       </c>
       <c r="P4" t="n">
-        <v>330.9862648790499</v>
+        <v>330.9402415175731</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29630,28 +29734,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06305533130732097</v>
+        <v>-0.05846788197513827</v>
       </c>
       <c r="J5" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K5" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002141723805915263</v>
+        <v>0.001853742329036678</v>
       </c>
       <c r="M5" t="n">
-        <v>7.837163994943083</v>
+        <v>7.828441123460391</v>
       </c>
       <c r="N5" t="n">
-        <v>102.5568028977869</v>
+        <v>102.3496643392014</v>
       </c>
       <c r="O5" t="n">
-        <v>10.12703327227608</v>
+        <v>10.11680109220308</v>
       </c>
       <c r="P5" t="n">
-        <v>340.6594801860839</v>
+        <v>340.6141867308019</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29708,28 +29812,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03809190450978303</v>
+        <v>-0.03357831149827274</v>
       </c>
       <c r="J6" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K6" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007929747088010197</v>
+        <v>0.0006205526741840384</v>
       </c>
       <c r="M6" t="n">
-        <v>7.9704256782202</v>
+        <v>7.96052474520081</v>
       </c>
       <c r="N6" t="n">
-        <v>100.0630801346166</v>
+        <v>99.82041593325968</v>
       </c>
       <c r="O6" t="n">
-        <v>10.00315350949972</v>
+        <v>9.991016761734498</v>
       </c>
       <c r="P6" t="n">
-        <v>341.0357144746329</v>
+        <v>340.9908760734015</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29786,28 +29890,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04309241336665456</v>
+        <v>-0.03942390399523389</v>
       </c>
       <c r="J7" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K7" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001088588290110271</v>
+        <v>0.0009182846420109358</v>
       </c>
       <c r="M7" t="n">
-        <v>7.66377987050515</v>
+        <v>7.650709707673959</v>
       </c>
       <c r="N7" t="n">
-        <v>94.16232832800537</v>
+        <v>93.86140746425016</v>
       </c>
       <c r="O7" t="n">
-        <v>9.703727548112909</v>
+        <v>9.688209714093217</v>
       </c>
       <c r="P7" t="n">
-        <v>341.8255280725202</v>
+        <v>341.789258881885</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29864,28 +29968,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01000527887210067</v>
+        <v>0.01476398877857525</v>
       </c>
       <c r="J8" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L8" t="n">
-        <v>8.35648329480243e-05</v>
+        <v>0.0001829396292246654</v>
       </c>
       <c r="M8" t="n">
-        <v>6.327081984470422</v>
+        <v>6.324464507446407</v>
       </c>
       <c r="N8" t="n">
-        <v>66.28059404503875</v>
+        <v>66.21579422023584</v>
       </c>
       <c r="O8" t="n">
-        <v>8.141289458374438</v>
+        <v>8.137308782406862</v>
       </c>
       <c r="P8" t="n">
-        <v>344.5058124034474</v>
+        <v>344.4587424178771</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29942,28 +30046,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0464378310406189</v>
+        <v>0.05027538120502578</v>
       </c>
       <c r="J9" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K9" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001797747090174218</v>
+        <v>0.002113446415490827</v>
       </c>
       <c r="M9" t="n">
-        <v>6.358014051190271</v>
+        <v>6.367011679029967</v>
       </c>
       <c r="N9" t="n">
-        <v>66.85743729543059</v>
+        <v>66.94897098946507</v>
       </c>
       <c r="O9" t="n">
-        <v>8.176639731297362</v>
+        <v>8.182235085199219</v>
       </c>
       <c r="P9" t="n">
-        <v>347.6848767498595</v>
+        <v>347.6473880741904</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30020,28 +30124,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07234101012014188</v>
+        <v>0.07688415927393866</v>
       </c>
       <c r="J10" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K10" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00437778588797888</v>
+        <v>0.004943929091007715</v>
       </c>
       <c r="M10" t="n">
-        <v>6.481382601171941</v>
+        <v>6.497149553805309</v>
       </c>
       <c r="N10" t="n">
-        <v>66.67768408057341</v>
+        <v>66.95591036934074</v>
       </c>
       <c r="O10" t="n">
-        <v>8.165640457464033</v>
+        <v>8.182659125818498</v>
       </c>
       <c r="P10" t="n">
-        <v>341.3119131209493</v>
+        <v>341.2675965170674</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30098,28 +30202,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02354703777725866</v>
+        <v>0.02648869746875501</v>
       </c>
       <c r="J11" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K11" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004196915663523537</v>
+        <v>0.0005339232858085907</v>
       </c>
       <c r="M11" t="n">
-        <v>6.603173236395266</v>
+        <v>6.604986076672653</v>
       </c>
       <c r="N11" t="n">
-        <v>74.0237950205487</v>
+        <v>73.98253292602219</v>
       </c>
       <c r="O11" t="n">
-        <v>8.603708213354793</v>
+        <v>8.601309954072239</v>
       </c>
       <c r="P11" t="n">
-        <v>333.385224928194</v>
+        <v>333.3568743788987</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30157,7 +30261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L593"/>
+  <dimension ref="A1:L595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34280,7 +34384,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>-36.60739170161739,174.71251650897128</t>
+          <t>-36.60739170161738,174.71251650897128</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -41827,7 +41931,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>-36.60684138864176,174.71193273232515</t>
+          <t>-36.60684138864177,174.71193273232515</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -47316,7 +47420,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>-36.60370675602495,174.70961634177803</t>
+          <t>-36.603706756024955,174.70961634177803</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -47445,7 +47549,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>-36.60428879306926,174.71017687885862</t>
+          <t>-36.60428879306925,174.71017687885862</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -52457,7 +52561,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>-36.60428879306926,174.71017687885862</t>
+          <t>-36.60428879306925,174.71017687885862</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -62475,6 +62579,130 @@
         </is>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-36.60174237550146,174.7084249682603</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-36.60242917406922,174.70870823827096</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-36.60304313349038,174.70922393066022</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-36.60368728576796,174.70966122998541</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-36.60430795296475,174.71013690885496</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>-36.60492381559955,174.7106046322944</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>-36.60550039320634,174.7111539524381</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>-36.60608931922741,174.71167522200673</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>-36.606679864405436,174.7121902838414</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>-36.60733072252243,174.71261284428402</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-36.601759346425965,174.70837504966056</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-36.60241281388182,174.70875636052858</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>-36.603041536279015,174.70922830994508</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-36.60365205993241,174.70974244214406</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-36.60428183839244,174.71019138719632</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-36.60491806549571,174.71061659207572</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>-36.60553876495281,174.71107464492877</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>-36.606172331000614,174.71152448848818</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>-36.60679131009862,174.7120125831167</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>-36.607410296485256,174.71248713258092</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L595"/>
+  <dimension ref="A1:L596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23218,6 +23218,48 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>320.31</v>
+      </c>
+      <c r="C596" t="n">
+        <v>313.3733333333333</v>
+      </c>
+      <c r="D596" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="E596" t="n">
+        <v>331.81</v>
+      </c>
+      <c r="F596" t="n">
+        <v>335.36</v>
+      </c>
+      <c r="G596" t="n">
+        <v>332.9557142857143</v>
+      </c>
+      <c r="H596" t="n">
+        <v>351.7357142857143</v>
+      </c>
+      <c r="I596" t="n">
+        <v>351.09</v>
+      </c>
+      <c r="J596" t="n">
+        <v>347.28</v>
+      </c>
+      <c r="K596" t="n">
+        <v>335.7733333333333</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23229,7 +23271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B609"/>
+  <dimension ref="A1:B610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29327,6 +29369,16 @@
       </c>
       <c r="B609" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -29500,28 +29552,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006287289040894804</v>
+        <v>-0.006712217251547531</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K2" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L2" t="n">
-        <v>1.811489476366557e-05</v>
+        <v>2.073607430885804e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.602413921175851</v>
+        <v>8.586463153552305</v>
       </c>
       <c r="N2" t="n">
-        <v>123.5364412529044</v>
+        <v>123.2776077518864</v>
       </c>
       <c r="O2" t="n">
-        <v>11.11469483399812</v>
+        <v>11.10304497657676</v>
       </c>
       <c r="P2" t="n">
-        <v>321.5283634335311</v>
+        <v>321.5325071254973</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29578,28 +29630,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07042573094034807</v>
+        <v>0.06773711138743127</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K3" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00330891610433337</v>
+        <v>0.003071503529958997</v>
       </c>
       <c r="M3" t="n">
-        <v>6.795013782946217</v>
+        <v>6.794748348123528</v>
       </c>
       <c r="N3" t="n">
-        <v>84.02291576073901</v>
+        <v>83.94556707906841</v>
       </c>
       <c r="O3" t="n">
-        <v>9.166401461900904</v>
+        <v>9.162181349387733</v>
       </c>
       <c r="P3" t="n">
-        <v>318.380347966894</v>
+        <v>318.4066040632098</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29656,28 +29708,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02806653883649602</v>
+        <v>-0.02944133828004119</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K4" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004529828068818853</v>
+        <v>0.0005004375228971902</v>
       </c>
       <c r="M4" t="n">
-        <v>7.698154948539957</v>
+        <v>7.690427004222547</v>
       </c>
       <c r="N4" t="n">
-        <v>97.82820729254776</v>
+        <v>97.65539181585457</v>
       </c>
       <c r="O4" t="n">
-        <v>9.89081428864923</v>
+        <v>9.882074266865969</v>
       </c>
       <c r="P4" t="n">
-        <v>330.9402415175731</v>
+        <v>330.9536040657599</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29734,28 +29786,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05846788197513827</v>
+        <v>-0.06129776404659295</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K5" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001853742329036678</v>
+        <v>0.002043533001963804</v>
       </c>
       <c r="M5" t="n">
-        <v>7.828441123460391</v>
+        <v>7.827798896106678</v>
       </c>
       <c r="N5" t="n">
-        <v>102.3496643392014</v>
+        <v>102.2499577481151</v>
       </c>
       <c r="O5" t="n">
-        <v>10.11680109220308</v>
+        <v>10.11187211885688</v>
       </c>
       <c r="P5" t="n">
-        <v>340.6141867308019</v>
+        <v>340.6421615415951</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29812,28 +29864,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03357831149827274</v>
+        <v>-0.03545409510196464</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K6" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006205526741840384</v>
+        <v>0.0006943883455902133</v>
       </c>
       <c r="M6" t="n">
-        <v>7.96052474520081</v>
+        <v>7.954264136690425</v>
       </c>
       <c r="N6" t="n">
-        <v>99.82041593325968</v>
+        <v>99.66401411548641</v>
       </c>
       <c r="O6" t="n">
-        <v>9.991016761734498</v>
+        <v>9.983186571204929</v>
       </c>
       <c r="P6" t="n">
-        <v>340.9908760734015</v>
+        <v>341.0095348464757</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29890,28 +29942,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03942390399523389</v>
+        <v>-0.04252570119701736</v>
       </c>
       <c r="J7" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K7" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009182846420109358</v>
+        <v>0.001071439115648332</v>
       </c>
       <c r="M7" t="n">
-        <v>7.650709707673959</v>
+        <v>7.651290532177642</v>
       </c>
       <c r="N7" t="n">
-        <v>93.86140746425016</v>
+        <v>93.7930500707143</v>
       </c>
       <c r="O7" t="n">
-        <v>9.688209714093217</v>
+        <v>9.684681206457665</v>
       </c>
       <c r="P7" t="n">
-        <v>341.789258881885</v>
+        <v>341.8199722612597</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29968,28 +30020,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01476398877857525</v>
+        <v>0.01755762692328304</v>
       </c>
       <c r="J8" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K8" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001829396292246654</v>
+        <v>0.0002594351492287705</v>
       </c>
       <c r="M8" t="n">
-        <v>6.324464507446407</v>
+        <v>6.325350684054706</v>
       </c>
       <c r="N8" t="n">
-        <v>66.21579422023584</v>
+        <v>66.17569447110148</v>
       </c>
       <c r="O8" t="n">
-        <v>8.137308782406862</v>
+        <v>8.134844465083612</v>
       </c>
       <c r="P8" t="n">
-        <v>344.4587424178771</v>
+        <v>344.4310543218185</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30046,28 +30098,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05027538120502578</v>
+        <v>0.05115276293714723</v>
       </c>
       <c r="J9" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K9" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002113446415490827</v>
+        <v>0.002197086284320915</v>
       </c>
       <c r="M9" t="n">
-        <v>6.367011679029967</v>
+        <v>6.358293151995022</v>
       </c>
       <c r="N9" t="n">
-        <v>66.94897098946507</v>
+        <v>66.8162543487071</v>
       </c>
       <c r="O9" t="n">
-        <v>8.182235085199219</v>
+        <v>8.174121013828159</v>
       </c>
       <c r="P9" t="n">
-        <v>347.6473880741904</v>
+        <v>347.6387951123032</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30124,28 +30176,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07688415927393866</v>
+        <v>0.0784916432038005</v>
       </c>
       <c r="J10" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K10" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004943929091007715</v>
+        <v>0.00517139759646823</v>
       </c>
       <c r="M10" t="n">
-        <v>6.497149553805309</v>
+        <v>6.492227565573273</v>
       </c>
       <c r="N10" t="n">
-        <v>66.95591036934074</v>
+        <v>66.85001215655589</v>
       </c>
       <c r="O10" t="n">
-        <v>8.182659125818498</v>
+        <v>8.176185672827881</v>
       </c>
       <c r="P10" t="n">
-        <v>341.2675965170674</v>
+        <v>341.251875620946</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30202,28 +30254,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02648869746875501</v>
+        <v>0.02719013042404475</v>
       </c>
       <c r="J11" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K11" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005339232858085907</v>
+        <v>0.0005650346759085156</v>
       </c>
       <c r="M11" t="n">
-        <v>6.604986076672653</v>
+        <v>6.594745893246872</v>
       </c>
       <c r="N11" t="n">
-        <v>73.98253292602219</v>
+        <v>73.83523193276328</v>
       </c>
       <c r="O11" t="n">
-        <v>8.601309954072239</v>
+        <v>8.592742980722935</v>
       </c>
       <c r="P11" t="n">
-        <v>333.3568743788987</v>
+        <v>333.350096508427</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30261,7 +30313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L595"/>
+  <dimension ref="A1:L596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62703,6 +62755,68 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-36.601757618987534,174.70838013078452</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-36.60244946767842,174.70864854604307</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-36.603077566357875,174.70912952138093</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-36.60372567119316,174.70957273325627</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-36.60434281841442,174.71006417492643</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-36.604978019503136,174.7104918920652</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-36.605514411619616,174.71112497891667</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-36.60614340652727,174.71157700987993</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>-36.60674433029166,174.71208749277008</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>-36.60738078710074,174.71253375184097</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L596"/>
+  <dimension ref="A1:L598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23260,6 +23260,84 @@
         </is>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="n">
+        <v>333.08</v>
+      </c>
+      <c r="F597" t="n">
+        <v>366.14</v>
+      </c>
+      <c r="G597" t="n">
+        <v>359.0642857142857</v>
+      </c>
+      <c r="H597" t="n">
+        <v>352.9042857142857</v>
+      </c>
+      <c r="I597" t="n">
+        <v>352.68</v>
+      </c>
+      <c r="J597" t="n">
+        <v>351.63</v>
+      </c>
+      <c r="K597" t="n">
+        <v>341.2133333333333</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>316.42</v>
+      </c>
+      <c r="C598" t="n">
+        <v>320.6233333333333</v>
+      </c>
+      <c r="D598" t="n">
+        <v>326.63</v>
+      </c>
+      <c r="E598" t="n">
+        <v>330.9</v>
+      </c>
+      <c r="F598" t="n">
+        <v>330.3</v>
+      </c>
+      <c r="G598" t="n">
+        <v>330.2771428571428</v>
+      </c>
+      <c r="H598" t="n">
+        <v>343.4471428571428</v>
+      </c>
+      <c r="I598" t="n">
+        <v>344.94</v>
+      </c>
+      <c r="J598" t="n">
+        <v>341.35</v>
+      </c>
+      <c r="K598" t="n">
+        <v>337.6433333333333</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23271,7 +23349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B610"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29379,6 +29457,26 @@
       </c>
       <c r="B610" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -29552,28 +29650,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006712217251547531</v>
+        <v>-0.008702419826963275</v>
       </c>
       <c r="J2" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K2" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L2" t="n">
-        <v>2.073607430885804e-05</v>
+        <v>3.499429766395945e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.586463153552305</v>
+        <v>8.578714932819585</v>
       </c>
       <c r="N2" t="n">
-        <v>123.2776077518864</v>
+        <v>123.0686522102732</v>
       </c>
       <c r="O2" t="n">
-        <v>11.10304497657676</v>
+        <v>11.0936311553194</v>
       </c>
       <c r="P2" t="n">
-        <v>321.5325071254973</v>
+        <v>321.5519987731109</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29630,28 +29728,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06773711138743127</v>
+        <v>0.06791978689441024</v>
       </c>
       <c r="J3" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K3" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003071503529958997</v>
+        <v>0.003101355301285635</v>
       </c>
       <c r="M3" t="n">
-        <v>6.794748348123528</v>
+        <v>6.781815477291652</v>
       </c>
       <c r="N3" t="n">
-        <v>83.94556707906841</v>
+        <v>83.77433464515168</v>
       </c>
       <c r="O3" t="n">
-        <v>9.162181349387733</v>
+        <v>9.152832055989649</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4066040632098</v>
+        <v>318.404812500036</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29708,28 +29806,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02944133828004119</v>
+        <v>-0.03083615932774742</v>
       </c>
       <c r="J4" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K4" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005004375228971902</v>
+        <v>0.0005511833903757424</v>
       </c>
       <c r="M4" t="n">
-        <v>7.690427004222547</v>
+        <v>7.682798548958045</v>
       </c>
       <c r="N4" t="n">
-        <v>97.65539181585457</v>
+        <v>97.48391486111301</v>
       </c>
       <c r="O4" t="n">
-        <v>9.882074266865969</v>
+        <v>9.873394292800882</v>
       </c>
       <c r="P4" t="n">
-        <v>330.9536040657599</v>
+        <v>330.9672185845065</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29786,28 +29884,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06129776404659295</v>
+        <v>-0.06674271000794181</v>
       </c>
       <c r="J5" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K5" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002043533001963804</v>
+        <v>0.002437154029415023</v>
       </c>
       <c r="M5" t="n">
-        <v>7.827798896106678</v>
+        <v>7.825512954394338</v>
       </c>
       <c r="N5" t="n">
-        <v>102.2499577481151</v>
+        <v>102.0421842908371</v>
       </c>
       <c r="O5" t="n">
-        <v>10.11187211885688</v>
+        <v>10.10159315607381</v>
       </c>
       <c r="P5" t="n">
-        <v>340.6421615415951</v>
+        <v>340.6961417389168</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29864,28 +29962,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03545409510196464</v>
+        <v>-0.0291472433697996</v>
       </c>
       <c r="J6" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K6" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006943883455902133</v>
+        <v>0.0004660920751883291</v>
       </c>
       <c r="M6" t="n">
-        <v>7.954264136690425</v>
+        <v>7.993922408830135</v>
       </c>
       <c r="N6" t="n">
-        <v>99.66401411548641</v>
+        <v>100.8198949540332</v>
       </c>
       <c r="O6" t="n">
-        <v>9.983186571204929</v>
+        <v>10.04091106195216</v>
       </c>
       <c r="P6" t="n">
-        <v>341.0095348464757</v>
+        <v>340.9468691913549</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29942,28 +30040,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04252570119701736</v>
+        <v>-0.03945048592997908</v>
       </c>
       <c r="J7" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K7" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001071439115648332</v>
+        <v>0.0009210904911360895</v>
       </c>
       <c r="M7" t="n">
-        <v>7.651290532177642</v>
+        <v>7.678741596172318</v>
       </c>
       <c r="N7" t="n">
-        <v>93.7930500707143</v>
+        <v>94.32180783049971</v>
       </c>
       <c r="O7" t="n">
-        <v>9.684681206457665</v>
+        <v>9.711941506748262</v>
       </c>
       <c r="P7" t="n">
-        <v>341.8199722612597</v>
+        <v>341.7896315777745</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30020,28 +30118,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01755762692328304</v>
+        <v>0.02019065112451012</v>
       </c>
       <c r="J8" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K8" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002594351492287705</v>
+        <v>0.0003453072086306852</v>
       </c>
       <c r="M8" t="n">
-        <v>6.325350684054706</v>
+        <v>6.318410683329208</v>
       </c>
       <c r="N8" t="n">
-        <v>66.17569447110148</v>
+        <v>66.03624227145126</v>
       </c>
       <c r="O8" t="n">
-        <v>8.134844465083612</v>
+        <v>8.126268656120795</v>
       </c>
       <c r="P8" t="n">
-        <v>344.4310543218185</v>
+        <v>344.4049534993411</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30098,28 +30196,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05115276293714723</v>
+        <v>0.05101992339154519</v>
       </c>
       <c r="J9" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K9" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002197086284320915</v>
+        <v>0.002203001859363951</v>
       </c>
       <c r="M9" t="n">
-        <v>6.358293151995022</v>
+        <v>6.347718328280764</v>
       </c>
       <c r="N9" t="n">
-        <v>66.8162543487071</v>
+        <v>66.59674932105591</v>
       </c>
       <c r="O9" t="n">
-        <v>8.174121013828159</v>
+        <v>8.160683140586695</v>
       </c>
       <c r="P9" t="n">
-        <v>347.6387951123032</v>
+        <v>347.6401514349655</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30176,28 +30274,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0784916432038005</v>
+        <v>0.0810192974574539</v>
       </c>
       <c r="J10" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K10" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00517139759646823</v>
+        <v>0.005542880826382768</v>
       </c>
       <c r="M10" t="n">
-        <v>6.492227565573273</v>
+        <v>6.48706788268152</v>
       </c>
       <c r="N10" t="n">
-        <v>66.85001215655589</v>
+        <v>66.72454257881142</v>
       </c>
       <c r="O10" t="n">
-        <v>8.176185672827881</v>
+        <v>8.168509201733901</v>
       </c>
       <c r="P10" t="n">
-        <v>341.251875620946</v>
+        <v>341.2271582804614</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30254,28 +30352,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02719013042404475</v>
+        <v>0.03150135921730381</v>
       </c>
       <c r="J11" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K11" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005650346759085156</v>
+        <v>0.0007637101804740531</v>
       </c>
       <c r="M11" t="n">
-        <v>6.594745893246872</v>
+        <v>6.588609642002412</v>
       </c>
       <c r="N11" t="n">
-        <v>73.83523193276328</v>
+        <v>73.66114983411676</v>
       </c>
       <c r="O11" t="n">
-        <v>8.592742980722935</v>
+        <v>8.582607403005031</v>
       </c>
       <c r="P11" t="n">
-        <v>333.350096508427</v>
+        <v>333.3083539043224</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30313,7 +30411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L596"/>
+  <dimension ref="A1:L598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62817,6 +62915,118 @@
         </is>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-36.60372024856187,174.7095852350243</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-36.60420105347846,174.71035991431535</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>-36.6048575046985,174.71074255369945</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>-36.60550899240394,174.71113617945696</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>-36.6061353239376,174.711591686325</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>-36.606720259348364,174.71212587400575</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>-36.60735051089931,174.71258158246113</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-36.60177124006722,174.70834006542896</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-36.602424081209115,174.70872321854318</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-36.60307782636846,174.70912880847342</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-36.60372955669982,174.70956377529535</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>-36.60436612343348,174.71001555749453</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>-36.604990383517794,174.71046617574953</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>-36.60555284959695,174.71104553445207</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>-36.606174669357756,174.71152024246882</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>-36.60677714422518,174.71203517072502</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>-36.60737037965857,174.7125501936209</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L598"/>
+  <dimension ref="A1:L602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23338,6 +23338,174 @@
         </is>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>311.9033333333333</v>
+      </c>
+      <c r="C599" t="n">
+        <v>315.2922222222222</v>
+      </c>
+      <c r="D599" t="n">
+        <v>324</v>
+      </c>
+      <c r="E599" t="n">
+        <v>329.92</v>
+      </c>
+      <c r="F599" t="n">
+        <v>329.15</v>
+      </c>
+      <c r="G599" t="n">
+        <v>329.1242857142857</v>
+      </c>
+      <c r="H599" t="n">
+        <v>341.6942857142857</v>
+      </c>
+      <c r="I599" t="n">
+        <v>343.27</v>
+      </c>
+      <c r="J599" t="n">
+        <v>338.85</v>
+      </c>
+      <c r="K599" t="n">
+        <v>336.5522222222222</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>320.0633333333333</v>
+      </c>
+      <c r="C600" t="n">
+        <v>321.4155555555556</v>
+      </c>
+      <c r="D600" t="n">
+        <v>331.67</v>
+      </c>
+      <c r="E600" t="n">
+        <v>338.42</v>
+      </c>
+      <c r="F600" t="n">
+        <v>334.16</v>
+      </c>
+      <c r="G600" t="n">
+        <v>335.7628571428572</v>
+      </c>
+      <c r="H600" t="n">
+        <v>344.2228571428572</v>
+      </c>
+      <c r="I600" t="n">
+        <v>349.47</v>
+      </c>
+      <c r="J600" t="n">
+        <v>341</v>
+      </c>
+      <c r="K600" t="n">
+        <v>333.5855555555555</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>305.5766666666667</v>
+      </c>
+      <c r="C601" t="n">
+        <v>306.9477777777778</v>
+      </c>
+      <c r="D601" t="n">
+        <v>318.04</v>
+      </c>
+      <c r="E601" t="n">
+        <v>323.74</v>
+      </c>
+      <c r="F601" t="n">
+        <v>325.71</v>
+      </c>
+      <c r="G601" t="n">
+        <v>325.4157142857143</v>
+      </c>
+      <c r="H601" t="n">
+        <v>337.7457142857143</v>
+      </c>
+      <c r="I601" t="n">
+        <v>339.81</v>
+      </c>
+      <c r="J601" t="n">
+        <v>333.56</v>
+      </c>
+      <c r="K601" t="n">
+        <v>330.1277777777778</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>319.01</v>
+      </c>
+      <c r="C602" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="D602" t="n">
+        <v>325.56</v>
+      </c>
+      <c r="E602" t="n">
+        <v>333.14</v>
+      </c>
+      <c r="F602" t="n">
+        <v>339.17</v>
+      </c>
+      <c r="G602" t="n">
+        <v>335.4957142857143</v>
+      </c>
+      <c r="H602" t="n">
+        <v>342.4657142857143</v>
+      </c>
+      <c r="I602" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="J602" t="n">
+        <v>340.02</v>
+      </c>
+      <c r="K602" t="n">
+        <v>320.57</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23349,7 +23517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29477,6 +29645,46 @@
       </c>
       <c r="B612" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -29650,28 +29858,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.008702419826963275</v>
+        <v>-0.02005264810242355</v>
       </c>
       <c r="J2" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K2" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L2" t="n">
-        <v>3.499429766395945e-05</v>
+        <v>0.0001879480687519974</v>
       </c>
       <c r="M2" t="n">
-        <v>8.578714932819585</v>
+        <v>8.565372923801164</v>
       </c>
       <c r="N2" t="n">
-        <v>123.0686522102732</v>
+        <v>122.7470186008877</v>
       </c>
       <c r="O2" t="n">
-        <v>11.0936311553194</v>
+        <v>11.07912535360475</v>
       </c>
       <c r="P2" t="n">
-        <v>321.5519987731109</v>
+        <v>321.6634701932481</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29728,28 +29936,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06791978689441024</v>
+        <v>0.06054647086695408</v>
       </c>
       <c r="J3" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K3" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003101355301285635</v>
+        <v>0.002496241799598065</v>
       </c>
       <c r="M3" t="n">
-        <v>6.781815477291652</v>
+        <v>6.769709556908325</v>
       </c>
       <c r="N3" t="n">
-        <v>83.77433464515168</v>
+        <v>83.50577614634831</v>
       </c>
       <c r="O3" t="n">
-        <v>9.152832055989649</v>
+        <v>9.138149492449131</v>
       </c>
       <c r="P3" t="n">
-        <v>318.404812500036</v>
+        <v>318.4773396940115</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29806,28 +30014,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03083615932774742</v>
+        <v>-0.03905596484721097</v>
       </c>
       <c r="J4" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K4" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005511833903757424</v>
+        <v>0.0008953353401586206</v>
       </c>
       <c r="M4" t="n">
-        <v>7.682798548958045</v>
+        <v>7.674866665481364</v>
       </c>
       <c r="N4" t="n">
-        <v>97.48391486111301</v>
+        <v>97.11550421658089</v>
       </c>
       <c r="O4" t="n">
-        <v>9.873394292800882</v>
+        <v>9.854719895389259</v>
       </c>
       <c r="P4" t="n">
-        <v>330.9672185845065</v>
+        <v>331.0476930821525</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29884,28 +30092,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06674271000794181</v>
+        <v>-0.07835497353755549</v>
       </c>
       <c r="J5" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K5" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002437154029415023</v>
+        <v>0.003388950298796267</v>
       </c>
       <c r="M5" t="n">
-        <v>7.825512954394338</v>
+        <v>7.825213183256547</v>
       </c>
       <c r="N5" t="n">
-        <v>102.0421842908371</v>
+        <v>101.9105487740652</v>
       </c>
       <c r="O5" t="n">
-        <v>10.10159315607381</v>
+        <v>10.09507547143978</v>
       </c>
       <c r="P5" t="n">
-        <v>340.6961417389168</v>
+        <v>340.8117659352067</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29962,28 +30170,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0291472433697996</v>
+        <v>-0.04166368676506183</v>
       </c>
       <c r="J6" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K6" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004660920751883291</v>
+        <v>0.0009610078710137193</v>
       </c>
       <c r="M6" t="n">
-        <v>7.993922408830135</v>
+        <v>7.994979682959938</v>
       </c>
       <c r="N6" t="n">
-        <v>100.8198949540332</v>
+        <v>100.7383384792197</v>
       </c>
       <c r="O6" t="n">
-        <v>10.04091106195216</v>
+        <v>10.03684903140521</v>
       </c>
       <c r="P6" t="n">
-        <v>340.9468691913549</v>
+        <v>341.0722103237403</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30040,28 +30248,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03945048592997908</v>
+        <v>-0.05388445295867417</v>
       </c>
       <c r="J7" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K7" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009210904911360895</v>
+        <v>0.001730608925204602</v>
       </c>
       <c r="M7" t="n">
-        <v>7.678741596172318</v>
+        <v>7.693296411958582</v>
       </c>
       <c r="N7" t="n">
-        <v>94.32180783049971</v>
+        <v>94.39936829975967</v>
       </c>
       <c r="O7" t="n">
-        <v>9.711941506748262</v>
+        <v>9.71593373277935</v>
       </c>
       <c r="P7" t="n">
-        <v>341.7896315777745</v>
+        <v>341.9335611497319</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30118,28 +30326,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02019065112451012</v>
+        <v>0.01481992490290101</v>
       </c>
       <c r="J8" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K8" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003453072086306852</v>
+        <v>0.000188883229138459</v>
       </c>
       <c r="M8" t="n">
-        <v>6.318410683329208</v>
+        <v>6.293823088856981</v>
       </c>
       <c r="N8" t="n">
-        <v>66.03624227145126</v>
+        <v>65.62563282213533</v>
       </c>
       <c r="O8" t="n">
-        <v>8.126268656120795</v>
+        <v>8.10096493154583</v>
       </c>
       <c r="P8" t="n">
-        <v>344.4049534993411</v>
+        <v>344.4585722171887</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30196,28 +30404,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05101992339154519</v>
+        <v>0.04391974130483257</v>
       </c>
       <c r="J9" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K9" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002203001859363951</v>
+        <v>0.001655656724498522</v>
       </c>
       <c r="M9" t="n">
-        <v>6.347718328280764</v>
+        <v>6.331334650460956</v>
       </c>
       <c r="N9" t="n">
-        <v>66.59674932105591</v>
+        <v>66.30276117836806</v>
       </c>
       <c r="O9" t="n">
-        <v>8.160683140586695</v>
+        <v>8.142650746431904</v>
       </c>
       <c r="P9" t="n">
-        <v>347.6401514349655</v>
+        <v>347.7101961480881</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30274,28 +30482,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0810192974574539</v>
+        <v>0.07327583116038272</v>
       </c>
       <c r="J10" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K10" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005542880826382768</v>
+        <v>0.004598186220792888</v>
       </c>
       <c r="M10" t="n">
-        <v>6.48706788268152</v>
+        <v>6.472434545844231</v>
       </c>
       <c r="N10" t="n">
-        <v>66.72454257881142</v>
+        <v>66.44166304204479</v>
       </c>
       <c r="O10" t="n">
-        <v>8.168509201733901</v>
+        <v>8.151175561969255</v>
       </c>
       <c r="P10" t="n">
-        <v>341.2271582804614</v>
+        <v>341.3034370552696</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30352,28 +30560,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03150135921730381</v>
+        <v>0.02530501857677729</v>
       </c>
       <c r="J11" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K11" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007637101804740531</v>
+        <v>0.000498886002973542</v>
       </c>
       <c r="M11" t="n">
-        <v>6.588609642002412</v>
+        <v>6.577803818501429</v>
       </c>
       <c r="N11" t="n">
-        <v>73.66114983411676</v>
+        <v>73.47617339630533</v>
       </c>
       <c r="O11" t="n">
-        <v>8.582607403005031</v>
+        <v>8.571824391359481</v>
       </c>
       <c r="P11" t="n">
-        <v>333.3083539043224</v>
+        <v>333.3687307007957</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30411,7 +30619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L598"/>
+  <dimension ref="A1:L602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63027,6 +63235,254 @@
         </is>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-36.6017870554432,174.70829354565342</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-36.60244274853611,174.70866830994188</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-36.60308759533472,174.70910202351635</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-36.6037337410909,174.70955412825953</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>-36.60437142002605,174.71000450807404</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>-36.60499570498808,174.7104551074447</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>-36.60556097840774,174.7110287336217</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>-36.606183158609674,174.7115048275703</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>-36.606790978086,174.71201311251386</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>-36.607376452212726,174.7125406001408</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-36.601758482706785,174.70837759022257</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-36.60242130717529,174.70873137815585</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-36.603059105595484,174.70918013780138</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-36.60369744787783,174.70963780149407</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>-36.60434834529815,174.7100526451034</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-36.60496506201002,174.71051884275502</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>-36.60554925224964,174.7110529695372</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>-36.606151641616854,174.7115620565176</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>-36.606779080965936,174.71203208257592</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>-36.6073929631251,174.7125145160274</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-36.60180920861163,174.7082283836028</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-36.60247196724978,174.70858236499421</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-36.60310973335061,174.70904132450048</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-36.60376012835594,174.70949329284574</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>-36.60438726374051,174.70997145588527</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-36.60501282336646,174.71041950232967</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-36.605579289754694,174.7109908872393</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-36.60620074711352,174.71147289010503</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>-36.60682025052261,174.71196643731284</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>-36.607412207297706,174.71248411385562</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-36.60176217102076,174.70836674133568</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.6024334070944,174.70869578713405</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.60308180081552,174.7091179111723</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.603719992374536,174.709585825659</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.60432527055146,174.71010078210355</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-36.60496629511521,174.71051627798238</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-36.60555740093628,174.71103612763062</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-36.60617182266207,174.71152541153583</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>-36.606784503839634,174.71202343575766</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>-36.607465400823585,174.71240007795313</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L602"/>
+  <dimension ref="A1:L603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23506,6 +23506,48 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>314.9866666666667</v>
+      </c>
+      <c r="C603" t="n">
+        <v>307.8411111111111</v>
+      </c>
+      <c r="D603" t="n">
+        <v>317.34</v>
+      </c>
+      <c r="E603" t="n">
+        <v>327.2</v>
+      </c>
+      <c r="F603" t="n">
+        <v>326</v>
+      </c>
+      <c r="G603" t="n">
+        <v>326.8714285714286</v>
+      </c>
+      <c r="H603" t="n">
+        <v>340.2714285714285</v>
+      </c>
+      <c r="I603" t="n">
+        <v>343.16</v>
+      </c>
+      <c r="J603" t="n">
+        <v>337.06</v>
+      </c>
+      <c r="K603" t="n">
+        <v>327.2411111111111</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23517,7 +23559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B616"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29685,6 +29727,16 @@
       </c>
       <c r="B616" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -29858,28 +29910,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02005264810242355</v>
+        <v>-0.02247830001372761</v>
       </c>
       <c r="J2" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K2" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001879480687519974</v>
+        <v>0.0002370211629446617</v>
       </c>
       <c r="M2" t="n">
-        <v>8.565372923801164</v>
+        <v>8.559961035953107</v>
       </c>
       <c r="N2" t="n">
-        <v>122.7470186008877</v>
+        <v>122.5693599592691</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07912535360475</v>
+        <v>11.07110473075154</v>
       </c>
       <c r="P2" t="n">
-        <v>321.6634701932481</v>
+        <v>321.6873515936496</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29936,28 +29988,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06054647086695408</v>
+        <v>0.05583132102174532</v>
       </c>
       <c r="J3" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K3" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002496241799598065</v>
+        <v>0.00212471957412963</v>
       </c>
       <c r="M3" t="n">
-        <v>6.769709556908325</v>
+        <v>6.78052469748994</v>
       </c>
       <c r="N3" t="n">
-        <v>83.50577614634831</v>
+        <v>83.63666218430677</v>
       </c>
       <c r="O3" t="n">
-        <v>9.138149492449131</v>
+        <v>9.145308206086156</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4773396940115</v>
+        <v>318.5238225038041</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30014,28 +30066,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03905596484721097</v>
+        <v>-0.04392054077672156</v>
       </c>
       <c r="J4" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008953353401586206</v>
+        <v>0.001133048872261511</v>
       </c>
       <c r="M4" t="n">
-        <v>7.674866665481364</v>
+        <v>7.687867575104889</v>
       </c>
       <c r="N4" t="n">
-        <v>97.11550421658089</v>
+        <v>97.2412113716202</v>
       </c>
       <c r="O4" t="n">
-        <v>9.854719895389259</v>
+        <v>9.861095850442799</v>
       </c>
       <c r="P4" t="n">
-        <v>331.0476930821525</v>
+        <v>331.0954188887433</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30092,28 +30144,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07835497353755549</v>
+        <v>-0.08273421376338462</v>
       </c>
       <c r="J5" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K5" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003388950298796267</v>
+        <v>0.003782490119451865</v>
       </c>
       <c r="M5" t="n">
-        <v>7.825213183256547</v>
+        <v>7.833241143081271</v>
       </c>
       <c r="N5" t="n">
-        <v>101.9105487740652</v>
+        <v>101.9726757125075</v>
       </c>
       <c r="O5" t="n">
-        <v>10.09507547143978</v>
+        <v>10.09815209394806</v>
       </c>
       <c r="P5" t="n">
-        <v>340.8117659352067</v>
+        <v>340.8554683724847</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30170,28 +30222,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04166368676506183</v>
+        <v>-0.04703323310786697</v>
       </c>
       <c r="J6" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K6" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009610078710137193</v>
+        <v>0.001224710817372299</v>
       </c>
       <c r="M6" t="n">
-        <v>7.994979682959938</v>
+        <v>8.00695966801228</v>
       </c>
       <c r="N6" t="n">
-        <v>100.7383384792197</v>
+        <v>100.9254749899838</v>
       </c>
       <c r="O6" t="n">
-        <v>10.03684903140521</v>
+        <v>10.04616717907799</v>
       </c>
       <c r="P6" t="n">
-        <v>341.0722103237403</v>
+        <v>341.1261216038671</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30248,28 +30300,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05388445295867417</v>
+        <v>-0.05916756245008867</v>
       </c>
       <c r="J7" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K7" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001730608925204602</v>
+        <v>0.002086232148338474</v>
       </c>
       <c r="M7" t="n">
-        <v>7.693296411958582</v>
+        <v>7.706747434495124</v>
       </c>
       <c r="N7" t="n">
-        <v>94.39936829975967</v>
+        <v>94.58447872260894</v>
       </c>
       <c r="O7" t="n">
-        <v>9.71593373277935</v>
+        <v>9.725455193594227</v>
       </c>
       <c r="P7" t="n">
-        <v>341.9335611497319</v>
+        <v>341.9863704438281</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30326,28 +30378,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01481992490290101</v>
+        <v>0.01301627157098493</v>
       </c>
       <c r="J8" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K8" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000188883229138459</v>
+        <v>0.0001462341799727263</v>
       </c>
       <c r="M8" t="n">
-        <v>6.293823088856981</v>
+        <v>6.290193633948388</v>
       </c>
       <c r="N8" t="n">
-        <v>65.62563282213533</v>
+        <v>65.53219468495647</v>
       </c>
       <c r="O8" t="n">
-        <v>8.10096493154583</v>
+        <v>8.095195778049872</v>
       </c>
       <c r="P8" t="n">
-        <v>344.4585722171887</v>
+        <v>344.4766194370054</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30404,28 +30456,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04391974130483257</v>
+        <v>0.041655174218156</v>
       </c>
       <c r="J9" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K9" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001655656724498522</v>
+        <v>0.001494504764959381</v>
       </c>
       <c r="M9" t="n">
-        <v>6.331334650460956</v>
+        <v>6.329147690968111</v>
       </c>
       <c r="N9" t="n">
-        <v>66.30276117836806</v>
+        <v>66.23124962256443</v>
       </c>
       <c r="O9" t="n">
-        <v>8.142650746431904</v>
+        <v>8.138258390009771</v>
       </c>
       <c r="P9" t="n">
-        <v>347.7101961480881</v>
+        <v>347.7325864856838</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30482,28 +30534,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07327583116038272</v>
+        <v>0.07088665674702306</v>
       </c>
       <c r="J10" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K10" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004598186220792888</v>
+        <v>0.004317660995129535</v>
       </c>
       <c r="M10" t="n">
-        <v>6.472434545844231</v>
+        <v>6.471053324475359</v>
       </c>
       <c r="N10" t="n">
-        <v>66.44166304204479</v>
+        <v>66.38237272696341</v>
       </c>
       <c r="O10" t="n">
-        <v>8.151175561969255</v>
+        <v>8.14753783218976</v>
       </c>
       <c r="P10" t="n">
-        <v>341.3034370552696</v>
+        <v>341.3270266484277</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30560,28 +30612,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02530501857677729</v>
+        <v>0.0226338613708176</v>
       </c>
       <c r="J11" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K11" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000498886002973542</v>
+        <v>0.0004003977044553242</v>
       </c>
       <c r="M11" t="n">
-        <v>6.577803818501429</v>
+        <v>6.578670441947534</v>
       </c>
       <c r="N11" t="n">
-        <v>73.47617339630533</v>
+        <v>73.41947113598883</v>
       </c>
       <c r="O11" t="n">
-        <v>8.571824391359481</v>
+        <v>8.568516273894147</v>
       </c>
       <c r="P11" t="n">
-        <v>333.3687307007957</v>
+        <v>333.394782996001</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30619,7 +30671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L602"/>
+  <dimension ref="A1:L603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63483,6 +63535,68 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-36.60177625897076,174.70832530269792</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.60246883917733,174.70859156602776</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.60311233345117,174.70903419541906</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.60374535490706,174.70952735280756</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.60438592807888,174.70997424226218</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.605006103942564,174.7104334782993</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.605567576853915,174.71101509578122</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-36.60618371778189,174.7115038122176</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-36.606800883127946,174.7119973188298</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>-36.607428272960526,174.7124587331105</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L603"/>
+  <dimension ref="A1:L604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23548,6 +23548,48 @@
         </is>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>307.7</v>
+      </c>
+      <c r="C604" t="n">
+        <v>308.62</v>
+      </c>
+      <c r="D604" t="n">
+        <v>322.53</v>
+      </c>
+      <c r="E604" t="n">
+        <v>333.29</v>
+      </c>
+      <c r="F604" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="G604" t="n">
+        <v>340.3185714285714</v>
+      </c>
+      <c r="H604" t="n">
+        <v>339.8085714285714</v>
+      </c>
+      <c r="I604" t="n">
+        <v>347.93</v>
+      </c>
+      <c r="J604" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="K604" t="n">
+        <v>319.41</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23559,7 +23601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29737,6 +29779,16 @@
       </c>
       <c r="B617" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -30671,7 +30723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L603"/>
+  <dimension ref="A1:L604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63597,6 +63649,68 @@
         </is>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.601801773648006,174.70825025306243</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.60246611183996,174.7085995883213</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.603093055552854,174.70908705245367</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.603719351906186,174.70958730224564</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.604328356396906,174.71009434462218</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-36.60494403327199,174.71056258103062</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-36.60556972333609,174.71101065937478</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-36.606159470033674,174.71154784158995</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-36.60679706498352,174.71200340689842</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>-36.607471856764974,174.71238987874943</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -29962,28 +29962,28 @@
         <v>0.0314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02247830001372761</v>
+        <v>-0.02775872540076581</v>
       </c>
       <c r="J2" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K2" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002370211629446617</v>
+        <v>0.0003618764316568601</v>
       </c>
       <c r="M2" t="n">
-        <v>8.559961035953107</v>
+        <v>8.569043240350952</v>
       </c>
       <c r="N2" t="n">
-        <v>122.5693599592691</v>
+        <v>122.6857824450955</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07110473075154</v>
+        <v>11.07636142625797</v>
       </c>
       <c r="P2" t="n">
-        <v>321.6873515936496</v>
+        <v>321.739514529893</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30040,28 +30040,28 @@
         <v>0.0508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05583132102174532</v>
+        <v>0.0514448832663001</v>
       </c>
       <c r="J3" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K3" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00212471957412963</v>
+        <v>0.001806616501596636</v>
       </c>
       <c r="M3" t="n">
-        <v>6.78052469748994</v>
+        <v>6.789930950823019</v>
       </c>
       <c r="N3" t="n">
-        <v>83.63666218430677</v>
+        <v>83.72673966053443</v>
       </c>
       <c r="O3" t="n">
-        <v>9.145308206086156</v>
+        <v>9.150231672506136</v>
       </c>
       <c r="P3" t="n">
-        <v>318.5238225038041</v>
+        <v>318.5672083216404</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30118,28 +30118,28 @@
         <v>0.0411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04392054077672156</v>
+        <v>-0.04676454608779525</v>
       </c>
       <c r="J4" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K4" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001133048872261511</v>
+        <v>0.00128835201784494</v>
       </c>
       <c r="M4" t="n">
-        <v>7.687867575104889</v>
+        <v>7.689112352347</v>
       </c>
       <c r="N4" t="n">
-        <v>97.2412113716202</v>
+        <v>97.156511757004</v>
       </c>
       <c r="O4" t="n">
-        <v>9.861095850442799</v>
+        <v>9.85680027985776</v>
       </c>
       <c r="P4" t="n">
-        <v>331.0954188887433</v>
+        <v>331.123412861711</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30196,28 +30196,28 @@
         <v>0.0428</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08273421376338462</v>
+        <v>-0.08478113177980721</v>
       </c>
       <c r="J5" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K5" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003782490119451865</v>
+        <v>0.003985249472256092</v>
       </c>
       <c r="M5" t="n">
-        <v>7.833241143081271</v>
+        <v>7.828772380053251</v>
       </c>
       <c r="N5" t="n">
-        <v>101.9726757125075</v>
+        <v>101.8280428007235</v>
       </c>
       <c r="O5" t="n">
-        <v>10.09815209394806</v>
+        <v>10.09098819743257</v>
       </c>
       <c r="P5" t="n">
-        <v>340.8554683724847</v>
+        <v>340.8759634600023</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30274,28 +30274,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04703323310786697</v>
+        <v>-0.0475707471911854</v>
       </c>
       <c r="J6" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K6" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001224710817372299</v>
+        <v>0.001258002594210939</v>
       </c>
       <c r="M6" t="n">
-        <v>8.00695966801228</v>
+        <v>7.993804902262073</v>
       </c>
       <c r="N6" t="n">
-        <v>100.9254749899838</v>
+        <v>100.7283092047854</v>
       </c>
       <c r="O6" t="n">
-        <v>10.04616717907799</v>
+        <v>10.03634939630867</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1261216038671</v>
+        <v>341.1315360194784</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30352,28 +30352,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05916756245008867</v>
+        <v>-0.05921609214999952</v>
       </c>
       <c r="J7" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K7" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002086232148338474</v>
+        <v>0.002098407528665525</v>
       </c>
       <c r="M7" t="n">
-        <v>7.706747434495124</v>
+        <v>7.691380386489683</v>
       </c>
       <c r="N7" t="n">
-        <v>94.58447872260894</v>
+        <v>94.39265553242772</v>
       </c>
       <c r="O7" t="n">
-        <v>9.725455193594227</v>
+        <v>9.715588275160066</v>
       </c>
       <c r="P7" t="n">
-        <v>341.9863704438281</v>
+        <v>341.9868571547304</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30430,28 +30430,28 @@
         <v>0.037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01301627157098493</v>
+        <v>0.01104101185430401</v>
       </c>
       <c r="J8" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K8" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001462341799727263</v>
+        <v>0.0001055888177994291</v>
       </c>
       <c r="M8" t="n">
-        <v>6.290193633948388</v>
+        <v>6.28743937303835</v>
       </c>
       <c r="N8" t="n">
-        <v>65.53219468495647</v>
+        <v>65.44775138946989</v>
       </c>
       <c r="O8" t="n">
-        <v>8.095195778049872</v>
+        <v>8.08997845420307</v>
       </c>
       <c r="P8" t="n">
-        <v>344.4766194370054</v>
+        <v>344.4964499775861</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30508,28 +30508,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.041655174218156</v>
+        <v>0.04130177372546952</v>
       </c>
       <c r="J9" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K9" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001494504764959381</v>
+        <v>0.001475649335410112</v>
       </c>
       <c r="M9" t="n">
-        <v>6.329147690968111</v>
+        <v>6.31764236657181</v>
       </c>
       <c r="N9" t="n">
-        <v>66.23124962256443</v>
+        <v>66.09433113362046</v>
       </c>
       <c r="O9" t="n">
-        <v>8.138258390009771</v>
+        <v>8.129842011602713</v>
       </c>
       <c r="P9" t="n">
-        <v>347.7325864856838</v>
+        <v>347.7360923268545</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30586,28 +30586,28 @@
         <v>0.0406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07088665674702306</v>
+        <v>0.0687786972880869</v>
       </c>
       <c r="J10" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K10" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004317660995129535</v>
+        <v>0.004079281058915862</v>
       </c>
       <c r="M10" t="n">
-        <v>6.471053324475359</v>
+        <v>6.468316154754731</v>
       </c>
       <c r="N10" t="n">
-        <v>66.38237272696341</v>
+        <v>66.3062695680354</v>
       </c>
       <c r="O10" t="n">
-        <v>8.14753783218976</v>
+        <v>8.142866176478366</v>
       </c>
       <c r="P10" t="n">
-        <v>341.3270266484277</v>
+        <v>341.3479095460356</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30664,28 +30664,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0226338613708176</v>
+        <v>0.01689786984703489</v>
       </c>
       <c r="J11" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K11" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004003977044553242</v>
+        <v>0.000222881624508342</v>
       </c>
       <c r="M11" t="n">
-        <v>6.578670441947534</v>
+        <v>6.596019980161981</v>
       </c>
       <c r="N11" t="n">
-        <v>73.41947113598883</v>
+        <v>73.70037645559944</v>
       </c>
       <c r="O11" t="n">
-        <v>8.568516273894147</v>
+        <v>8.584892338031937</v>
       </c>
       <c r="P11" t="n">
-        <v>333.394782996001</v>
+        <v>333.4509106210709</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0141/nzd0141.xlsx
+++ b/data/nzd0141/nzd0141.xlsx
@@ -29953,13 +29953,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0295</v>
+        <v>0.0318</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0314</v>
+        <v>0.0356</v>
       </c>
       <c r="I2" t="n">
         <v>-0.02774420511436932</v>
@@ -30031,13 +30031,13 @@
         <v>0.1111448987218185</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0444</v>
+        <v>0.0446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0508</v>
+        <v>0.0512</v>
       </c>
       <c r="I3" t="n">
         <v>0.05144179256254623</v>
@@ -30109,13 +30109,13 @@
         <v>0.2222897974420706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0391</v>
+        <v>0.0397</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0411</v>
+        <v>0.046</v>
       </c>
       <c r="I4" t="n">
         <v>-0.04676454608779525</v>
@@ -30190,10 +30190,10 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0393</v>
+        <v>0.0396</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0428</v>
+        <v>0.0417</v>
       </c>
       <c r="I5" t="n">
         <v>-0.08478113177980721</v>
@@ -30268,10 +30268,10 @@
         <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0383</v>
+        <v>0.0351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0411</v>
+        <v>0.0408</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0475707471911854</v>
@@ -30346,10 +30346,10 @@
         <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0343</v>
+        <v>0.0347</v>
       </c>
       <c r="H7" t="n">
-        <v>0.037</v>
+        <v>0.0372</v>
       </c>
       <c r="I7" t="n">
         <v>-0.0591804143506543</v>
@@ -30421,13 +30421,13 @@
         <v>0.6666226706357888</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0348</v>
+        <v>0.0398</v>
       </c>
       <c r="H8" t="n">
-        <v>0.037</v>
+        <v>0.0403</v>
       </c>
       <c r="I8" t="n">
         <v>0.01107941583036746</v>
@@ -30499,13 +30499,13 @@
         <v>0.7777675693554608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0385</v>
+        <v>0.0439</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0406</v>
+        <v>0.046</v>
       </c>
       <c r="I9" t="n">
         <v>0.04130177372546952</v>
@@ -30577,13 +30577,13 @@
         <v>0.8888551012788487</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0393</v>
+        <v>0.0448</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0406</v>
+        <v>0.0509</v>
       </c>
       <c r="I10" t="n">
         <v>0.0687786972880869</v>
@@ -30655,13 +30655,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0445</v>
+        <v>0.0479</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0504</v>
+        <v>0.0522</v>
       </c>
       <c r="I11" t="n">
         <v>0.01689990047047623</v>
